--- a/Advance.TestNG/excel/data.xlsx
+++ b/Advance.TestNG/excel/data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13755" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M18"/>
+  <oleSize ref="A1:L13"/>
 </workbook>
 </file>
 

--- a/Advance.TestNG/excel/data.xlsx
+++ b/Advance.TestNG/excel/data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L13"/>
+  <oleSize ref="A1:P25"/>
 </workbook>
 </file>
 
@@ -389,7 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -432,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
